--- a/study/Timetable_Study.xlsx
+++ b/study/Timetable_Study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Documents\GitHub\research-seminar\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EC5718-D627-42AB-A7C7-695741FD1222}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B00456B-81B7-45B9-BC2F-3892BEFD5858}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4760" yWindow="4260" windowWidth="29430" windowHeight="11820" xr2:uid="{7160C211-2DAA-4C13-B48E-5CC8958FEA54}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC880358-D7B2-404B-B757-71A065684B9B}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,79 +420,66 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>0.5625</v>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>0.63541666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>0.6875</v>
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>0.72916666666666663</v>
+        <v>0.82291666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>0.75</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>0.77083333333333337</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/study/Timetable_Study.xlsx
+++ b/study/Timetable_Study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Documents\GitHub\research-seminar\study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\research-seminar\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B00456B-81B7-45B9-BC2F-3892BEFD5858}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59FF321-B22C-4F09-8E33-9DE18F36E231}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="4260" windowWidth="29430" windowHeight="11820" xr2:uid="{7160C211-2DAA-4C13-B48E-5CC8958FEA54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7160C211-2DAA-4C13-B48E-5CC8958FEA54}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Konsti</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Lisa</t>
+  </si>
+  <si>
+    <t>Tobi</t>
+  </si>
+  <si>
+    <t>Joschi</t>
   </si>
 </sst>
 </file>
@@ -55,12 +61,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,13 +87,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -97,7 +110,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -396,12 +409,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43858</v>
       </c>
@@ -409,7 +422,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -418,7 +431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.57291666666666663</v>
       </c>
@@ -426,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -434,51 +447,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.63541666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.69791666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.76041666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.82291666666666663</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
